--- a/src/analysis_examples/circadb/results_lomb/cosinor_10507851_pabpc4_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10507851_pabpc4_.xlsx
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2984633696688173, 0.44316716946620377]</t>
+          <t>[0.2989151264724219, 0.4427154126625992]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.271541064251096e-10</v>
+        <v>5.607065922674792e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>6.271541064251096e-10</v>
+        <v>5.607065922674792e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.2767368904063083</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-0.49057903299300065, -0.06289474781961601]</t>
+          <t>[-0.4780000834290776, -0.07547369738353904]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.01367198627857524</v>
+        <v>0.009386422708450137</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01367198627857524</v>
+        <v>0.009386422708450137</v>
       </c>
       <c r="S2" t="n">
         <v>0.3854131721694575</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.34407981374004337, 0.4267465305988716]</t>
+          <t>[0.3440308749315408, 0.4267954694073742]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>7.105427357601002e-15</v>
       </c>
       <c r="V2" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>7.105427357601002e-15</v>
       </c>
       <c r="W2" t="n">
         <v>1.189189189189239</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2702702702702844</v>
+        <v>0.3243243243243403</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.108108108108194</v>
+        <v>2.054054054054138</v>
       </c>
     </row>
   </sheetData>
